--- a/factor_all/result/config2/portfolio0/portfolio0_account_df.xlsx
+++ b/factor_all/result/config2/portfolio0/portfolio0_account_df.xlsx
@@ -8167,7 +8167,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'000300.XSHG': &lt;backtest.Position object at 0x00000278008CE2B0&gt;}</t>
+          <t>{'000300.XSHG': &lt;backtest.Position object at 0x0000028F80A01780&gt;}</t>
         </is>
       </c>
     </row>
